--- a/backend/app/data/des_philosophes_de_lan.xlsx
+++ b/backend/app/data/des_philosophes_de_lan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alyssa/Documents/GitHub/playing-cards/backend/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BA9966-3E37-904B-9999-6EE13363D0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED70F6A9-9ECA-6044-B068-73918AF6C5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15960" xr2:uid="{71E25E93-68D8-F447-AD35-34F8AFF9FFBB}"/>
+    <workbookView xWindow="9800" yWindow="1000" windowWidth="27640" windowHeight="15960" xr2:uid="{71E25E93-68D8-F447-AD35-34F8AFF9FFBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="33">
   <si>
     <t>DB ID</t>
   </si>
@@ -99,19 +99,40 @@
     <t>End Date</t>
   </si>
   <si>
-    <t>des_philosophes_de_lan.K.1</t>
-  </si>
-  <si>
-    <t>des_philosophes_de_lan.Q.1</t>
-  </si>
-  <si>
     <t>des_philosophes_de_lan.QD.1</t>
   </si>
   <si>
     <t>des_philosophes_de_lan.QS.1</t>
   </si>
   <si>
-    <t>des_philosophes_de_lan.J.1</t>
+    <t>des_philosophes_de_lan.KC.1</t>
+  </si>
+  <si>
+    <t>des_philosophes_de_lan.KD.1</t>
+  </si>
+  <si>
+    <t>des_philosophes_de_lan.KH.1</t>
+  </si>
+  <si>
+    <t>des_philosophes_de_lan.KS.1</t>
+  </si>
+  <si>
+    <t>des_philosophes_de_lan.QC.1</t>
+  </si>
+  <si>
+    <t>des_philosophes_de_lan.QH.1</t>
+  </si>
+  <si>
+    <t>des_philosophes_de_lan.JC.1</t>
+  </si>
+  <si>
+    <t>des_philosophes_de_lan.JD.1</t>
+  </si>
+  <si>
+    <t>des_philosophes_de_lan.JH.1</t>
+  </si>
+  <si>
+    <t>des_philosophes_de_lan.JS.1</t>
   </si>
 </sst>
 </file>
@@ -495,7 +516,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,7 +564,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -577,7 +598,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
@@ -611,7 +632,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -645,7 +666,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -679,7 +700,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -713,7 +734,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -747,7 +768,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -815,7 +836,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
@@ -849,7 +870,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
@@ -883,7 +904,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -917,7 +938,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
